--- a/biology/Zoologie/Camptopus_lateralis/Camptopus_lateralis.xlsx
+++ b/biology/Zoologie/Camptopus_lateralis/Camptopus_lateralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camptopus lateralis  est une espèce d'insectes du sous-ordre des hétéroptères (punaises), de la famille des Alydidae, sous-famille des Alydinae, et du genre Camptopus.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Punaise poilue avec de nombreuses veines dans l'apex membraneux. Longueur du corps compris entre 12 et 15 mm. Corps allongé; tête plus large que le pronotum. Couleur de fond brun foncé, marge fine blanche; fémurs épineux élargis; tibias brun clair jaunâtre incurvés; antennes à 4 articles; abdomen brun orangé.
 Cette espèce ressemble à Alydus calcaratus; elle en diffère par la courbure des tibias; chez Alydus calcaratus le tibia est rectiligne.
@@ -545,18 +559,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Camptopus lateralis a été décrite par l'entomologiste allemand Ernst Friedrich Germar en 1817, sous le nom initial de Alydus lateralis[1].
-Synonymie
-Alydus lateralis Germar, 1817 (protonyme)
-Camptopus annulatus (Brullé, 1832)[2]
-Camptopus geranii (Dufour, 1833)[3]
-Camptopus marginalis (Herrich-Schäffer, 1835)[4]
-Camptopus marginatus (Herrich-Schäffer, 1835)[4]
-Camptopus occipes (Herrich-Schäffer, 1835)[4]
-Camptopus brevipes (Herrich-Schäffer, 1840)[5]
-Camptopus undulatus (Westwood, 1842)[6]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Camptopus lateralis a été décrite par l'entomologiste allemand Ernst Friedrich Germar en 1817, sous le nom initial de Alydus lateralis.
+</t>
         </is>
       </c>
     </row>
@@ -581,10 +589,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alydus lateralis Germar, 1817 (protonyme)
+Camptopus annulatus (Brullé, 1832)
+Camptopus geranii (Dufour, 1833)
+Camptopus marginalis (Herrich-Schäffer, 1835)
+Camptopus marginatus (Herrich-Schäffer, 1835)
+Camptopus occipes (Herrich-Schäffer, 1835)
+Camptopus brevipes (Herrich-Schäffer, 1840)
+Camptopus undulatus (Westwood, 1842)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Camptopus_lateralis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camptopus_lateralis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>"Camptope des genêts" en français ; Broad-headed bug en anglais.</t>
         </is>
